--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1708624.908809223</v>
+        <v>1812804.543260295</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>208.7099749169713</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>31.23712159276747</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.4467615873</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>59.48049208484132</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>259.2714515328003</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>78.35381101375779</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1102,10 +1104,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>81.86480902444563</v>
       </c>
       <c r="X7" t="n">
-        <v>201.7132727215683</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>98.20294324774056</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1193,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>57.8157898639742</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1339,10 +1341,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>62.13489945235157</v>
+        <v>150.414712867501</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>160.6789846282037</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>53.30076123484789</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>32.44181015857195</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>93.05052491174644</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922732</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>83.53432244437089</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>106.5290632934456</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>29.249233057517</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.96838802184633</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>186.5877792298974</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>34.21058558914873</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>41.55695577161193</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3907,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>196.7867454260345</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>35.41770597126623</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559527</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.385526619115</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,13 +4330,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3294.053173535669</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3088.075425919891</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>3088.075425919891</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>3088.075425919891</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535338</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559527</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4398,13 +4400,13 @@
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>936.5735814686088</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>846.0716871064765</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>827.0643955080142</v>
       </c>
       <c r="J3" t="n">
         <v>920.7416649986314</v>
@@ -4419,16 +4421,16 @@
         <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
         <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201687</v>
@@ -4437,7 +4439,7 @@
         <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
         <v>2775.312734507438</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.5323442946291</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="C4" t="n">
-        <v>507.5323442946291</v>
+        <v>529.639588403983</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>379.5229489916472</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>231.6098554092541</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>231.6098554092541</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218343</v>
@@ -4489,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046023</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>909.9733882683989</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>909.9733882683989</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y4" t="n">
-        <v>689.1808091248688</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1879.829578210439</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4567,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,13 +4579,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4592,25 +4594,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250373</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y5" t="n">
-        <v>2266.429418274561</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.3667606649364</v>
+        <v>798.5065461617548</v>
       </c>
       <c r="C7" t="n">
-        <v>478.4305777370295</v>
+        <v>629.570363233848</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
         <v>331.5406302391191</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.910120335303</v>
+        <v>1019.299125305285</v>
       </c>
       <c r="X7" t="n">
-        <v>868.1593398084665</v>
+        <v>1019.299125305285</v>
       </c>
       <c r="Y7" t="n">
-        <v>647.3667606649364</v>
+        <v>798.5065461617548</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.53911114974</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.53911114974</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>916.2734125429899</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>916.2734125429899</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>505.2875077533824</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4838,16 +4840,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213862</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>941.4970410294717</v>
+        <v>478.9911633238872</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.701566146676</v>
+        <v>1493.844153271331</v>
       </c>
       <c r="U10" t="n">
-        <v>1485.598699272319</v>
+        <v>1204.741286396975</v>
       </c>
       <c r="V10" t="n">
-        <v>1230.914211066432</v>
+        <v>950.0567981910876</v>
       </c>
       <c r="W10" t="n">
-        <v>941.4970410294717</v>
+        <v>660.639628154127</v>
       </c>
       <c r="X10" t="n">
-        <v>941.4970410294717</v>
+        <v>660.639628154127</v>
       </c>
       <c r="Y10" t="n">
-        <v>941.4970410294717</v>
+        <v>660.639628154127</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5269,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5753,19 +5755,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5789,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2418.621364762389</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>2913.946970978148</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>3511.3254586047</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>4138.923422159307</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398593</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D22" t="n">
-        <v>2588.787486630498</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E22" t="n">
-        <v>2588.787486630498</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>2588.787486630498</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>2421.591387345378</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2326.07822707019</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5981,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6014,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2389.334518447046</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2884.660124662805</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3482.038612289356</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>3482.038612289356</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2414.193578369582</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2194.592113392523</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1905.516886736721</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1650.832398530834</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1361.415228493873</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>1133.425677595856</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6251,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6302,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>718.550723916711</v>
+        <v>727.978678255732</v>
       </c>
       <c r="C28" t="n">
-        <v>549.6145409888042</v>
+        <v>559.0424953278251</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888042</v>
+        <v>408.9258559154894</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330963</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330963</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1893.082977031346</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1638.398488825459</v>
+        <v>1647.82644316448</v>
       </c>
       <c r="W28" t="n">
-        <v>1348.981318788498</v>
+        <v>1358.409273127519</v>
       </c>
       <c r="X28" t="n">
-        <v>1120.991767890481</v>
+        <v>1130.419722229502</v>
       </c>
       <c r="Y28" t="n">
-        <v>900.1991887469508</v>
+        <v>909.6271430859717</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6677,13 +6679,13 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300424</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926976</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>4435.461999481583</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>4435.461999481583</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>4435.461999481583</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2878.798005073647</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>2878.798005073647</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661312</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661312</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661312</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467151</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430191</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532174</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388644</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P36" t="n">
-        <v>2297.690135143765</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.951795518647</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>721.7774158311364</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032295</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2404.986360578632</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2185.384895601573</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1896.309668945771</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1641.625180739884</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1352.208010702924</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1124.218459804906</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>903.4258806613761</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7263,16 +7265,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7497,16 +7499,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7597,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>129.5921236250085</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>129.5921236250085</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -23419,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>125.5054897610405</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219412</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>127.7255247667967</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>148.5844758430727</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>125.5341284403484</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>202.6501519448732</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>145.6085800303824</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>119.3662399606954</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>119.863592160091</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>65.54986409393064</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>112.2233770574204</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.4693302300327</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823101</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>20.61870490125375</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>45.8481303472993</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="16">
@@ -26314,40 +26316,40 @@
         <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583915</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907537</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907541</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.370099883548738e-11</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
+        <v>90354.06702314482</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314483</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26436,16 +26438,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179355</v>
+      </c>
+      <c r="J4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26454,7 +26456,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-972829.5586537393</v>
+        <v>-972829.558653739</v>
       </c>
       <c r="C6" t="n">
-        <v>355915.1870738538</v>
+        <v>355915.1870738533</v>
       </c>
       <c r="D6" t="n">
-        <v>355915.1870738533</v>
+        <v>355915.1870738534</v>
       </c>
       <c r="E6" t="n">
         <v>107121.9309076981</v>
       </c>
       <c r="F6" t="n">
-        <v>432534.3927150532</v>
+        <v>432534.3927150533</v>
       </c>
       <c r="G6" t="n">
-        <v>432534.3927150532</v>
+        <v>432534.3927150531</v>
       </c>
       <c r="H6" t="n">
         <v>432534.3927150532</v>
       </c>
       <c r="I6" t="n">
-        <v>432534.3927150533</v>
+        <v>432534.3927150535</v>
       </c>
       <c r="J6" t="n">
-        <v>215003.1903177761</v>
+        <v>215003.1903177759</v>
       </c>
       <c r="K6" t="n">
         <v>432534.3927150532</v>
@@ -26552,16 +26554,16 @@
         <v>432534.3927150534</v>
       </c>
       <c r="M6" t="n">
-        <v>347479.3647795417</v>
+        <v>347479.3647795413</v>
       </c>
       <c r="N6" t="n">
-        <v>432534.3927150531</v>
+        <v>432534.3927150535</v>
       </c>
       <c r="O6" t="n">
         <v>432534.3927150535</v>
       </c>
       <c r="P6" t="n">
-        <v>432534.3927150533</v>
+        <v>432534.3927150532</v>
       </c>
     </row>
   </sheetData>
@@ -26704,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>145.9730667037117</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>77.95064019540837</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>2.579046671728264</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>227.0425062517497</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>106.0014402382072</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>291.3772896647113</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>204.6581893121454</v>
       </c>
       <c r="X7" t="n">
-        <v>23.99638266746882</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>312.7187824057129</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>291.4251788534388</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>157.4140498238176</v>
+        <v>69.13423640866822</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -29038,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>8.411472576664805e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29281,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29445,7 +29447,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-2.053100445934254e-12</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -29749,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31841,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551099</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32789,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0225991093083</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>409.0029787211721</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,7 +33034,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33263,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>360.9226811202607</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33670,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33737,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R36" t="n">
-        <v>168.0123247135882</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33913,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33983,7 +33985,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>428.7353800421384</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34217,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075094</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>8.181160134949316</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>266.8689447991538</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36911,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>220.9409070342392</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37318,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37385,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R36" t="n">
-        <v>22.33282074962425</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37631,7 +37633,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>297.3936679588052</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1812804.543260295</v>
+        <v>1808791.933246302</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>261.7337600035925</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>31.23712159276747</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.4467615873</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -876,7 +876,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>196.9997515590323</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>254.5944732736867</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>78.35381101375779</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>13.04369508046162</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>81.86480902444563</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>209.7083496784902</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>57.8157898639742</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>138.5234422138603</v>
       </c>
       <c r="T10" t="n">
-        <v>150.414712867501</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>20.88994825141578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>19.91555826189101</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>34.67929910923783</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>53.30076123484789</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.05052491174644</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922732</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>106.5290632934456</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>107.7122866515512</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3436347319622</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>186.5877792298974</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>34.21058558914873</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>196.7867454260345</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2240.582457090718</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4315,10 +4315,10 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3294.053173535669</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3088.075425919891</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U2" t="n">
-        <v>3088.075425919891</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V2" t="n">
-        <v>3088.075425919891</v>
+        <v>2630.721789066529</v>
       </c>
       <c r="W2" t="n">
-        <v>2735.306770649777</v>
+        <v>2630.721789066529</v>
       </c>
       <c r="X2" t="n">
-        <v>2735.306770649777</v>
+        <v>2630.721789066529</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2240.582457090718</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686088</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064765</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080142</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.5757713318899</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C4" t="n">
-        <v>529.639588403983</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D4" t="n">
-        <v>379.5229489916472</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>231.6098554092541</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F4" t="n">
-        <v>231.6098554092541</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>935.919076328589</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621296</v>
+        <v>935.919076328589</v>
       </c>
       <c r="X4" t="n">
-        <v>880.2242361621296</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y4" t="n">
-        <v>880.2242361621296</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1535.524858594924</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1535.524858594924</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1149.73660599668</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>738.7507012070726</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>323.678251052069</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997114</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2434.183678346854</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4676,22 +4676,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>798.5065461617548</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>629.570363233848</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
         <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1824.288641269796</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1602.522025839322</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1602.522025839322</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="W7" t="n">
-        <v>1019.299125305285</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="X7" t="n">
-        <v>1019.299125305285</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>798.5065461617548</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1475.375487024176</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>731.321535819181</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>320.3356310295734</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.344253709365</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>2621.077176004521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.9911633238872</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="T10" t="n">
-        <v>1493.844153271331</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="U10" t="n">
-        <v>1204.741286396975</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="V10" t="n">
-        <v>950.0567981910876</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="W10" t="n">
-        <v>660.639628154127</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X10" t="n">
-        <v>660.639628154127</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y10" t="n">
-        <v>660.639628154127</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8164599824514</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5281,22 +5281,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.991523718104</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>642.8692823226941</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>473.9330993947872</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>323.8164599824514</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2326.07822707019</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1273.299877194481</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1045.310326296464</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>824.5177471529338</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5980,52 +5980,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852888</v>
@@ -6034,7 +6034,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.978678255732</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278251</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>408.9258559154894</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330963</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330963</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.82644316448</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127519</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229502</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859717</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
         <v>484.8112968429803</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6782,25 +6782,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6861,49 +6861,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>983.3403484614341</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>762.547769317904</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>377.6556127449245</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2248.188593250933</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1959.113366595131</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1704.428878389244</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.011708352283</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.022157454266</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>127.7255247667967</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.5341284403484</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>145.6085800303824</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>53.48834544997509</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>65.54986409393064</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>112.2233770574204</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>20.61870490125375</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583914</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583915</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7.254361662489829e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.370099883548738e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314495</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314489</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26438,16 +26438,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="L4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179355</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-972829.558653739</v>
+        <v>-972829.5586537387</v>
       </c>
       <c r="C6" t="n">
-        <v>355915.1870738533</v>
+        <v>355915.1870738531</v>
       </c>
       <c r="D6" t="n">
-        <v>355915.1870738534</v>
+        <v>355915.1870738529</v>
       </c>
       <c r="E6" t="n">
-        <v>107121.9309076981</v>
+        <v>106774.5516533413</v>
       </c>
       <c r="F6" t="n">
-        <v>432534.3927150533</v>
+        <v>432187.0134606967</v>
       </c>
       <c r="G6" t="n">
-        <v>432534.3927150531</v>
+        <v>432187.0134606962</v>
       </c>
       <c r="H6" t="n">
-        <v>432534.3927150532</v>
+        <v>432187.0134606965</v>
       </c>
       <c r="I6" t="n">
-        <v>432534.3927150535</v>
+        <v>432187.0134606963</v>
       </c>
       <c r="J6" t="n">
-        <v>215003.1903177759</v>
+        <v>214655.811063419</v>
       </c>
       <c r="K6" t="n">
-        <v>432534.3927150532</v>
+        <v>432187.0134606962</v>
       </c>
       <c r="L6" t="n">
-        <v>432534.3927150534</v>
+        <v>432187.0134606966</v>
       </c>
       <c r="M6" t="n">
-        <v>347479.3647795413</v>
+        <v>347131.9855251844</v>
       </c>
       <c r="N6" t="n">
-        <v>432534.3927150535</v>
+        <v>432187.0134606963</v>
       </c>
       <c r="O6" t="n">
-        <v>432534.3927150535</v>
+        <v>432187.0134606965</v>
       </c>
       <c r="P6" t="n">
-        <v>432534.3927150532</v>
+        <v>432187.0134606965</v>
       </c>
     </row>
   </sheetData>
@@ -26706,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022922</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>103.5391317674151</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>77.95064019540837</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>2.579046671728264</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>55.13789176479568</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>40.01329111363378</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>291.3772896647113</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>176.7253302509803</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>204.6581893121454</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>201.2133759749633</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>291.4251788534388</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>51.24558311758159</v>
       </c>
       <c r="T10" t="n">
-        <v>69.13423640866822</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>8.411472576664805e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29447,7 +29447,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.053100445934254e-12</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29933,7 +29933,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,22 +32083,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33201,7 +33201,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>489.8124929257571</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33502,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096303</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1808791.933246302</v>
+        <v>1810552.463549088</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>261.7337600035925</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>166.2000800609345</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="V4" t="n">
-        <v>196.9997515590323</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>283.6826708844501</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>254.5944732736867</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>13.04369508046162</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7083496784902</v>
+        <v>85.48001049171613</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>138.5234422138603</v>
+        <v>11.16818915334145</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>19.91555826189101</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.294096136280511</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>27.77749086859528</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>34.67929910923783</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.3555494301526</v>
+        <v>165.0963079021241</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>33.01627976944107</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>126.3436347319622</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>240.7377005646511</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>21.63824106824953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2240.582457090718</v>
+        <v>1758.295537883728</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1758.295537883728</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1400.029839276977</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.7846764101</v>
+        <v>2866.097597267232</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066529</v>
+        <v>2535.034709923661</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066529</v>
+        <v>2535.034709923661</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066529</v>
+        <v>2535.034709923661</v>
       </c>
       <c r="Y2" t="n">
-        <v>2240.582457090718</v>
+        <v>2144.895377947849</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686083</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064758</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962573</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548191</v>
+        <v>680.3679798527296</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269122</v>
+        <v>511.4317969248227</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>361.315157512487</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218338</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V4" t="n">
-        <v>935.919076328589</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W4" t="n">
-        <v>935.919076328589</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X4" t="n">
-        <v>935.919076328589</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>715.1264971850588</v>
+        <v>862.0164446829693</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C5" t="n">
-        <v>1535.524858594924</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="D5" t="n">
-        <v>1535.524858594924</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1149.73660599668</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>738.7507012070726</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>323.678251052069</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1824.288641269796</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1602.522025839322</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1602.522025839322</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.837537633435</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.837537633435</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964587</v>
+        <v>2016.438433460089</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.375487024176</v>
+        <v>1647.475916519677</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.109788417425</v>
+        <v>1289.210217912927</v>
       </c>
       <c r="E8" t="n">
-        <v>731.321535819181</v>
+        <v>903.4219653146824</v>
       </c>
       <c r="F8" t="n">
-        <v>320.3356310295734</v>
+        <v>492.4360605250749</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,22 +4804,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265601</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.077176004521</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028709</v>
+        <v>2403.038273524211</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4895,40 +4895,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.541421943132</v>
+        <v>1916.013548943703</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.541421943132</v>
+        <v>1916.013548943703</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.541421943132</v>
+        <v>1626.910682069347</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.541421943132</v>
+        <v>1372.22619386346</v>
       </c>
       <c r="W10" t="n">
-        <v>1408.124251906171</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="X10" t="n">
-        <v>1180.134701008154</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,67 +5023,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474266</v>
+        <v>550.921708803229</v>
       </c>
       <c r="E13" t="n">
-        <v>113.9333885650335</v>
+        <v>550.921708803229</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>404.0317613053186</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>236.8356620201985</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>95.12383086239663</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5232,19 +5232,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>263.5865657902135</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>121.8747346324116</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>816.8474788130626</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D19" t="n">
-        <v>666.7308394007268</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5843,10 +5843,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5949,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5995,22 +5995,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="26">
@@ -6220,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,19 +6247,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6542,25 +6542,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>209.2531439449482</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6688,10 +6688,10 @@
         <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>634.9279362553159</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>634.9279362553159</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
         <v>484.8112968429802</v>
@@ -6861,49 +6861,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038296</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258101</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602299</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396412</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359451</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614341</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317904</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>79.971740182285</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>53.48834544997024</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>111.7546635373313</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194223</v>
+        <v>53.48834544997069</v>
       </c>
     </row>
     <row r="26">
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>19.50758019582712</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.48834544997509</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>45.44677382459304</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>892988.9500093142</v>
+        <v>892988.9500093141</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="12">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
@@ -26325,37 +26325,37 @@
         <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="N2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.254361662489829e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314495</v>
+        <v>90354.06702314463</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314489</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26444,7 +26444,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-972829.5586537387</v>
+        <v>-972829.55865374</v>
       </c>
       <c r="C6" t="n">
-        <v>355915.1870738531</v>
+        <v>355915.1870738538</v>
       </c>
       <c r="D6" t="n">
-        <v>355915.1870738529</v>
+        <v>355915.1870738538</v>
       </c>
       <c r="E6" t="n">
-        <v>106774.5516533413</v>
+        <v>107087.1929822624</v>
       </c>
       <c r="F6" t="n">
-        <v>432187.0134606967</v>
+        <v>432499.6547896176</v>
       </c>
       <c r="G6" t="n">
-        <v>432187.0134606962</v>
+        <v>432499.6547896176</v>
       </c>
       <c r="H6" t="n">
-        <v>432187.0134606965</v>
+        <v>432499.6547896178</v>
       </c>
       <c r="I6" t="n">
-        <v>432187.0134606963</v>
+        <v>432499.6547896175</v>
       </c>
       <c r="J6" t="n">
-        <v>214655.811063419</v>
+        <v>214968.4523923399</v>
       </c>
       <c r="K6" t="n">
-        <v>432187.0134606962</v>
+        <v>432499.6547896176</v>
       </c>
       <c r="L6" t="n">
-        <v>432187.0134606966</v>
+        <v>432499.6547896178</v>
       </c>
       <c r="M6" t="n">
-        <v>347131.9855251844</v>
+        <v>347444.6268541058</v>
       </c>
       <c r="N6" t="n">
-        <v>432187.0134606963</v>
+        <v>432499.6547896178</v>
       </c>
       <c r="O6" t="n">
-        <v>432187.0134606965</v>
+        <v>432499.6547896175</v>
       </c>
       <c r="P6" t="n">
-        <v>432187.0134606965</v>
+        <v>432499.6547896173</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022922</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>103.5391317674151</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>215.7302900113273</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>214.5414662356952</v>
       </c>
       <c r="V4" t="n">
-        <v>55.13789176479568</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>71.00037073623281</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>40.01329111363378</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>176.7253302509803</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>128.4296311708952</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>201.2133759749633</v>
+        <v>325.4417151617373</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>51.24558311758159</v>
+        <v>178.6008361781005</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29933,7 +29933,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -33201,7 +33201,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33262,7 +33262,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>489.8124929257571</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36910,7 +36910,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>347.2162484813126</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096303</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
